--- a/preperation/list_dataset_correction.xlsx
+++ b/preperation/list_dataset_correction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F878"/>
+  <dimension ref="A1:F877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20611,12 +20611,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -20643,12 +20643,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>00013</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -20729,7 +20729,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>100620</t>
+          <t>110519</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -20739,12 +20739,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>00013</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -20771,7 +20771,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -20803,7 +20803,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -20931,12 +20931,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -20963,7 +20963,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>00013</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -21059,7 +21059,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>00013</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>00015</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -21108,12 +21108,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>P229</t>
+          <t>P243</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>110519</t>
+          <t>111319</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -21123,7 +21123,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>00015</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -21187,7 +21187,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -21251,12 +21251,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -21288,7 +21288,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -21315,12 +21315,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -21379,12 +21379,12 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
@@ -21443,12 +21443,12 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -21480,7 +21480,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
@@ -21507,12 +21507,12 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>00015</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -21571,12 +21571,12 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>00015</t>
+          <t>00017</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -21608,7 +21608,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
@@ -21620,12 +21620,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>P243</t>
+          <t>P245</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>111319</t>
+          <t>111519</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>00017</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -21699,7 +21699,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -21731,12 +21731,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -21795,7 +21795,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -21827,12 +21827,12 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -21891,12 +21891,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -21955,12 +21955,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -21992,7 +21992,7 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -22019,12 +22019,12 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -22051,7 +22051,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>00015</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -22068,22 +22068,22 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>P245</t>
+          <t>P258</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>111519</t>
+          <t>111819</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>w</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>00015</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22152,12 +22152,12 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22179,12 +22179,12 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -22243,12 +22243,12 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -22280,7 +22280,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22339,17 +22339,17 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00013</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22408,12 +22408,12 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22435,12 +22435,12 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>00013</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22499,7 +22499,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>00015</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -22509,7 +22509,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22541,7 +22541,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22568,34 +22568,34 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>P258</t>
+          <t>P263</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>111819</t>
+          <t>112219</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>00015</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -22723,12 +22723,12 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -22787,12 +22787,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -22851,12 +22851,12 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -22883,7 +22883,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -22947,12 +22947,12 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -23011,12 +23011,12 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
@@ -23075,12 +23075,12 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
@@ -23139,12 +23139,12 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>00015</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
@@ -23156,12 +23156,12 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>P263</t>
+          <t>P266</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>112219</t>
+          <t>101520</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -23171,12 +23171,12 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>00015</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F711" t="inlineStr">
@@ -23203,12 +23203,12 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F712" t="inlineStr">
@@ -23235,12 +23235,12 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F713" t="inlineStr">
@@ -23267,12 +23267,12 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F714" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F715" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -23363,12 +23363,12 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F717" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F718" t="inlineStr">
@@ -23427,12 +23427,12 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F719" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
@@ -23491,12 +23491,12 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
@@ -23555,12 +23555,12 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F723" t="inlineStr">
@@ -23592,7 +23592,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F724" t="inlineStr">
@@ -23619,12 +23619,12 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F725" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F726" t="inlineStr">
@@ -23673,22 +23673,22 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>101520</t>
+          <t>121319</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>w</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F727" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23752,12 +23752,12 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23779,12 +23779,12 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23848,12 +23848,12 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23875,12 +23875,12 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F733" t="inlineStr">
@@ -23907,7 +23907,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -23971,12 +23971,12 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
@@ -24008,7 +24008,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
@@ -24035,12 +24035,12 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F738" t="inlineStr">
@@ -24072,7 +24072,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
@@ -24099,12 +24099,12 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F740" t="inlineStr">
@@ -24141,7 +24141,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24168,39 +24168,39 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>P266</t>
+          <t>P270</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>121319</t>
+          <t>100220</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F743" t="inlineStr">
@@ -24227,7 +24227,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -24264,7 +24264,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F745" t="inlineStr">
@@ -24291,12 +24291,12 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F746" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F747" t="inlineStr">
@@ -24355,12 +24355,12 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F748" t="inlineStr">
@@ -24387,7 +24387,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>100220</t>
+          <t>121619</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -24451,7 +24451,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F753" t="inlineStr">
@@ -24547,12 +24547,12 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F754" t="inlineStr">
@@ -24579,7 +24579,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -24616,7 +24616,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F756" t="inlineStr">
@@ -24643,12 +24643,12 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F757" t="inlineStr">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -24712,7 +24712,7 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F759" t="inlineStr">
@@ -24739,12 +24739,12 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F760" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F761" t="inlineStr">
@@ -24803,12 +24803,12 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F762" t="inlineStr">
@@ -24840,7 +24840,7 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
@@ -24867,12 +24867,12 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
@@ -24904,7 +24904,7 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
@@ -24916,27 +24916,27 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>P270</t>
+          <t>P272</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>121619</t>
+          <t>101320</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>w</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F766" t="inlineStr">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F767" t="inlineStr">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -25027,17 +25027,17 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25064,7 +25064,7 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F770" t="inlineStr">
@@ -25091,12 +25091,12 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>00013</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F771" t="inlineStr">
@@ -25128,7 +25128,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>00013</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -25187,12 +25187,12 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>00015</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F774" t="inlineStr">
@@ -25224,7 +25224,7 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>00015</t>
+          <t>00016</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -25283,12 +25283,12 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>00016</t>
+          <t>00018</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F777" t="inlineStr">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F778" t="inlineStr">
@@ -25347,12 +25347,12 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>00018</t>
+          <t>00019</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F779" t="inlineStr">
@@ -25384,7 +25384,7 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
@@ -25401,17 +25401,17 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>101320</t>
+          <t>122019</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>00019</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
@@ -25443,12 +25443,12 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -25507,7 +25507,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -25539,7 +25539,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -25576,7 +25576,7 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F786" t="inlineStr">
@@ -25603,7 +25603,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -25635,12 +25635,12 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
@@ -25672,7 +25672,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
@@ -25699,12 +25699,12 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
@@ -25736,7 +25736,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
@@ -25763,12 +25763,12 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>00012</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
@@ -25800,7 +25800,7 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
@@ -25827,12 +25827,12 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>00012</t>
+          <t>00016</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
@@ -25864,7 +25864,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
@@ -25876,12 +25876,12 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>P272</t>
+          <t>P273</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>122019</t>
+          <t>010920</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>00016</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -25923,12 +25923,12 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
@@ -25987,7 +25987,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -26019,12 +26019,12 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
@@ -26051,12 +26051,12 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
@@ -26147,7 +26147,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
@@ -26184,7 +26184,7 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
@@ -26211,12 +26211,12 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>00013</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
@@ -26275,12 +26275,12 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>00013</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
@@ -26312,7 +26312,7 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
@@ -26324,27 +26324,27 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>P273</t>
+          <t>P277</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>010920</t>
+          <t>093020</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>w</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>00014</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
@@ -26381,7 +26381,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26408,12 +26408,12 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26435,12 +26435,12 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
@@ -26509,7 +26509,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26531,7 +26531,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26632,7 +26632,7 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
@@ -26659,12 +26659,12 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
@@ -26696,7 +26696,7 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
@@ -26723,12 +26723,12 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
@@ -26760,7 +26760,7 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
@@ -26787,12 +26787,12 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
@@ -26829,7 +26829,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26856,12 +26856,12 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26883,12 +26883,12 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
@@ -26920,7 +26920,7 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
@@ -26937,22 +26937,22 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>093020</t>
+          <t>121819</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
@@ -26984,7 +26984,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
@@ -27011,12 +27011,12 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
@@ -27043,7 +27043,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
@@ -27080,7 +27080,7 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
@@ -27107,12 +27107,12 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
@@ -27144,7 +27144,7 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
@@ -27171,12 +27171,12 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
@@ -27235,12 +27235,12 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
@@ -27267,7 +27267,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
@@ -27304,7 +27304,7 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
@@ -27331,12 +27331,12 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
@@ -27380,12 +27380,12 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>P277</t>
+          <t>P290</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>121819</t>
+          <t>010820</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
@@ -27427,7 +27427,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
@@ -27459,12 +27459,12 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
@@ -27491,7 +27491,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
@@ -27523,7 +27523,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
@@ -27560,7 +27560,7 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
@@ -27587,12 +27587,12 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
@@ -27624,7 +27624,7 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
@@ -27651,12 +27651,12 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
@@ -27715,12 +27715,12 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
@@ -27764,27 +27764,27 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>P290</t>
+          <t>P297</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>010820</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>w</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
@@ -27811,12 +27811,12 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00013</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>00013</t>
+          <t>00017</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
@@ -27907,12 +27907,12 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>00017</t>
+          <t>00019</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
@@ -27939,12 +27939,12 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>00019</t>
+          <t>00020</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
@@ -27971,7 +27971,7 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>00020</t>
+          <t>00021</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
@@ -28003,7 +28003,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>00021</t>
+          <t>00022</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -28035,12 +28035,12 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>00022</t>
+          <t>00025</t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
@@ -28072,7 +28072,7 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
@@ -28099,12 +28099,12 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>00025</t>
+          <t>00026</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
@@ -28131,7 +28131,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>00026</t>
+          <t>00027</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
@@ -28163,7 +28163,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>00027</t>
+          <t>00028</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -28200,7 +28200,7 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
@@ -28217,22 +28217,22 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>011020</t>
+          <t>100920</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>00028</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
@@ -28259,12 +28259,12 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
@@ -28291,12 +28291,12 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>oaleg</t>
+          <t>nonleg</t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
@@ -28323,7 +28323,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
@@ -28355,12 +28355,12 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>0006</t>
+          <t>0008</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>nonleg</t>
+          <t>oaleg</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
@@ -28387,7 +28387,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0009</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
@@ -28419,7 +28419,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>00010</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
@@ -28451,7 +28451,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>00010</t>
+          <t>00011</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
@@ -28483,7 +28483,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>00011</t>
+          <t>00014</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
@@ -28492,38 +28492,6 @@
         </is>
       </c>
       <c r="F877" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>P297</t>
-        </is>
-      </c>
-      <c r="B878" t="inlineStr">
-        <is>
-          <t>100920</t>
-        </is>
-      </c>
-      <c r="C878" t="inlineStr">
-        <is>
-          <t>fw</t>
-        </is>
-      </c>
-      <c r="D878" t="inlineStr">
-        <is>
-          <t>00014</t>
-        </is>
-      </c>
-      <c r="E878" t="inlineStr">
-        <is>
-          <t>oaleg</t>
-        </is>
-      </c>
-      <c r="F878" t="inlineStr">
         <is>
           <t>1</t>
         </is>
